--- a/src/test/resources/vtiger.xlsx
+++ b/src/test/resources/vtiger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikar Reddy\eclipse-Chaitra\Vtiger.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3295A667-E736-4D8B-8A57-C4F9E66133B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5638F-700F-4B45-AFC7-667CBE02642D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{DC564384-3697-4D62-B1E4-50322B0FDD10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DC564384-3697-4D62-B1E4-50322B0FDD10}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>TC_ID</t>
   </si>
@@ -147,20 +147,22 @@
     <t>Banking</t>
   </si>
   <si>
-    <t>Const</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Chaitra125gh</t>
+  </si>
+  <si>
+    <t>Amdocs25</t>
+  </si>
+  <si>
+    <t>Construction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,17 +517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30981C1F-454F-4678-8616-CD6FB4028322}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="2" max="2" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -544,15 +546,15 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -580,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -623,14 +625,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE52D9-245D-4939-ACC2-49DE18965C06}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +688,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +696,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +715,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
